--- a/biology/Botanique/Setchellanthaceae/Setchellanthaceae.xlsx
+++ b/biology/Botanique/Setchellanthaceae/Setchellanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique, les Setchellanthacées sont une famille de plantes dicotylédones qui ne comprend qu'une espèce Setchellanthus caeruleus. C'est un arbuste à très petites feuilles alternes, avec des rameaux longs et des rameaux courts, des régions arides originaire du Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Setchellanthus, nom donné en hommage au botaniste américain William Albert Setchell (en) (1864–1943), auquel est accolé le suffixe grec -άνθος / -anthos. Setchell herborisa dans diverses parties du monde, puis devint professeur de botanique à l'Université de Californie à Berkeley[1] où il créa deux herbiers regroupés sous le nom « University and Jepson Herbaria (en) ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Setchellanthus, nom donné en hommage au botaniste américain William Albert Setchell (en) (1864–1943), auquel est accolé le suffixe grec -άνθος / -anthos. Setchell herborisa dans diverses parties du monde, puis devint professeur de botanique à l'Université de Californie à Berkeley où il créa deux herbiers regroupés sous le nom « University and Jepson Herbaria (en) ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification classique cette famille n'existait pas et le genre Setchellanthus était placé dans les Capparidacées.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[2], Angiosperm Phylogeny Website                        (21 juin 2010)[3] et DELTA Angio           (21 juin 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010), Angiosperm Phylogeny Website                        (21 juin 2010) et DELTA Angio           (21 juin 2010) :
 Setchellanthus</t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[2] et Angiosperm Phylogeny Website                        (21 juin 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) et Angiosperm Phylogeny Website                        (21 juin 2010) :
 genre Setchellanthus
 Setchellanthus caeruleus</t>
         </is>
